--- a/Data/2020.xlsx
+++ b/Data/2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/AdityaG/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6A949CAF-D412-8B49-9EB1-3A7226BCE965}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E88D2EAD-F55A-464E-B4F1-E662E06F405C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="15640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="57">
   <si>
     <t>Reservoir Name</t>
   </si>
@@ -59,9 +59,6 @@
   </si>
   <si>
     <t>Dec 2020</t>
-  </si>
-  <si>
-    <t>Jan 2021</t>
   </si>
   <si>
     <t>DISTRICT</t>
@@ -545,15 +542,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="N1" sqref="N1:N1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -599,13 +596,10 @@
       <c r="O1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>16</v>
       </c>
       <c r="B2">
         <v>0.23</v>
@@ -643,19 +637,16 @@
       <c r="M2">
         <v>0.22</v>
       </c>
-      <c r="N2">
-        <v>0.19</v>
+      <c r="N2" t="s">
+        <v>16</v>
       </c>
       <c r="O2" t="s">
         <v>17</v>
       </c>
-      <c r="P2" t="s">
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>19</v>
       </c>
       <c r="B3">
         <v>0.64</v>
@@ -693,19 +684,16 @@
       <c r="M3">
         <v>0.88</v>
       </c>
-      <c r="N3">
-        <v>0.82</v>
+      <c r="N3" t="s">
+        <v>19</v>
       </c>
       <c r="O3" t="s">
         <v>20</v>
       </c>
-      <c r="P3" t="s">
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>22</v>
       </c>
       <c r="B4">
         <v>0.72</v>
@@ -743,19 +731,16 @@
       <c r="M4">
         <v>0.76</v>
       </c>
-      <c r="N4">
-        <v>0.68</v>
+      <c r="N4" t="s">
+        <v>22</v>
       </c>
       <c r="O4" t="s">
         <v>23</v>
       </c>
-      <c r="P4" t="s">
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>25</v>
       </c>
       <c r="B5">
         <v>2.19</v>
@@ -793,19 +778,16 @@
       <c r="M5">
         <v>2.4500000000000002</v>
       </c>
-      <c r="N5">
-        <v>2.2400000000000002</v>
+      <c r="N5" t="s">
+        <v>25</v>
       </c>
       <c r="O5" t="s">
         <v>26</v>
       </c>
-      <c r="P5" t="s">
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>28</v>
       </c>
       <c r="B6">
         <v>0.54</v>
@@ -843,19 +825,16 @@
       <c r="M6">
         <v>0.56999999999999995</v>
       </c>
-      <c r="N6">
-        <v>0.52</v>
+      <c r="N6" t="s">
+        <v>28</v>
       </c>
       <c r="O6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>29</v>
-      </c>
-      <c r="P6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>30</v>
       </c>
       <c r="B7">
         <v>0.05</v>
@@ -893,19 +872,16 @@
       <c r="M7">
         <v>0.04</v>
       </c>
-      <c r="N7">
-        <v>0.04</v>
+      <c r="N7" t="s">
+        <v>30</v>
       </c>
       <c r="O7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>31</v>
-      </c>
-      <c r="P7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>32</v>
       </c>
       <c r="B8">
         <v>0.3</v>
@@ -943,19 +919,16 @@
       <c r="M8">
         <v>0.3</v>
       </c>
-      <c r="N8">
-        <v>0.28999999999999998</v>
+      <c r="N8" t="s">
+        <v>32</v>
       </c>
       <c r="O8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>33</v>
-      </c>
-      <c r="P8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>34</v>
       </c>
       <c r="B9">
         <v>0.25</v>
@@ -993,19 +966,16 @@
       <c r="M9">
         <v>0.32</v>
       </c>
-      <c r="N9">
-        <v>0.31</v>
+      <c r="N9" t="s">
+        <v>28</v>
       </c>
       <c r="O9" t="s">
-        <v>29</v>
-      </c>
-      <c r="P9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B10">
         <v>0.16</v>
@@ -1043,19 +1013,16 @@
       <c r="M10">
         <v>0.13</v>
       </c>
-      <c r="N10">
-        <v>0.13</v>
+      <c r="N10" t="s">
+        <v>32</v>
       </c>
       <c r="O10" t="s">
-        <v>33</v>
-      </c>
-      <c r="P10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B11">
         <v>0.79</v>
@@ -1093,19 +1060,16 @@
       <c r="M11">
         <v>0.78</v>
       </c>
-      <c r="N11">
-        <v>0.69</v>
+      <c r="N11" t="s">
+        <v>36</v>
       </c>
       <c r="O11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>37</v>
-      </c>
-      <c r="P11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>38</v>
       </c>
       <c r="B12">
         <v>0.26</v>
@@ -1143,19 +1107,16 @@
       <c r="M12">
         <v>0.27</v>
       </c>
-      <c r="N12">
-        <v>0.26</v>
+      <c r="N12" t="s">
+        <v>30</v>
       </c>
       <c r="O12" t="s">
-        <v>31</v>
-      </c>
-      <c r="P12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B13">
         <v>0.33</v>
@@ -1193,19 +1154,16 @@
       <c r="M13">
         <v>0.33</v>
       </c>
-      <c r="N13">
-        <v>0.25</v>
+      <c r="N13" t="s">
+        <v>25</v>
       </c>
       <c r="O13" t="s">
         <v>26</v>
       </c>
-      <c r="P13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B14">
         <v>0.43</v>
@@ -1243,19 +1201,16 @@
       <c r="M14">
         <v>0.45</v>
       </c>
-      <c r="N14">
-        <v>0.4</v>
+      <c r="N14" t="s">
+        <v>40</v>
       </c>
       <c r="O14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>41</v>
-      </c>
-      <c r="P14" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>42</v>
       </c>
       <c r="B15">
         <v>0.55000000000000004</v>
@@ -1293,19 +1248,16 @@
       <c r="M15">
         <v>0.6</v>
       </c>
-      <c r="N15">
-        <v>0.55000000000000004</v>
+      <c r="N15" t="s">
+        <v>42</v>
       </c>
       <c r="O15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>43</v>
-      </c>
-      <c r="P15" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>44</v>
       </c>
       <c r="B16">
         <v>0.94</v>
@@ -1343,19 +1295,16 @@
       <c r="M16">
         <v>0.91</v>
       </c>
-      <c r="N16">
-        <v>0.85</v>
+      <c r="N16" t="s">
+        <v>44</v>
       </c>
       <c r="O16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>45</v>
-      </c>
-      <c r="P16" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>46</v>
       </c>
       <c r="B17">
         <v>0.56999999999999995</v>
@@ -1393,19 +1342,16 @@
       <c r="M17">
         <v>0.65</v>
       </c>
-      <c r="N17">
-        <v>0.64</v>
+      <c r="N17" t="s">
+        <v>25</v>
       </c>
       <c r="O17" t="s">
         <v>26</v>
       </c>
-      <c r="P17" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B18">
         <v>0.25</v>
@@ -1443,19 +1389,16 @@
       <c r="M18">
         <v>0.26</v>
       </c>
-      <c r="N18">
-        <v>0.27</v>
+      <c r="N18" t="s">
+        <v>47</v>
       </c>
       <c r="O18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>48</v>
-      </c>
-      <c r="P18" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>49</v>
       </c>
       <c r="B19">
         <v>0.28000000000000003</v>
@@ -1493,19 +1436,16 @@
       <c r="M19">
         <v>0.21</v>
       </c>
-      <c r="N19">
-        <v>0.19</v>
+      <c r="N19" t="s">
+        <v>25</v>
       </c>
       <c r="O19" t="s">
         <v>26</v>
       </c>
-      <c r="P19" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B20">
         <v>1.9</v>
@@ -1543,19 +1483,16 @@
       <c r="M20">
         <v>1.96</v>
       </c>
-      <c r="N20">
-        <v>1.81</v>
+      <c r="N20" t="s">
+        <v>25</v>
       </c>
       <c r="O20" t="s">
-        <v>26</v>
-      </c>
-      <c r="P20" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B21">
         <v>0.45</v>
@@ -1593,19 +1530,16 @@
       <c r="M21">
         <v>0.44</v>
       </c>
-      <c r="N21">
-        <v>0.36</v>
+      <c r="N21" t="s">
+        <v>51</v>
       </c>
       <c r="O21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>52</v>
-      </c>
-      <c r="P21" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>53</v>
       </c>
       <c r="B22">
         <v>0.31</v>
@@ -1643,19 +1577,16 @@
       <c r="M22">
         <v>0.39</v>
       </c>
-      <c r="N22">
-        <v>0.33</v>
+      <c r="N22" t="s">
+        <v>25</v>
       </c>
       <c r="O22" t="s">
         <v>26</v>
       </c>
-      <c r="P22" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B23">
         <v>1.36</v>
@@ -1693,69 +1624,63 @@
       <c r="M23">
         <v>1.52</v>
       </c>
-      <c r="N23">
-        <v>1.42</v>
+      <c r="N23" t="s">
+        <v>30</v>
       </c>
       <c r="O23" t="s">
-        <v>31</v>
-      </c>
-      <c r="P23" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B24">
         <v>0.26</v>
       </c>
       <c r="C24" t="s">
+        <v>55</v>
+      </c>
+      <c r="D24" t="s">
+        <v>55</v>
+      </c>
+      <c r="E24" t="s">
+        <v>55</v>
+      </c>
+      <c r="F24" t="s">
+        <v>55</v>
+      </c>
+      <c r="G24" t="s">
+        <v>55</v>
+      </c>
+      <c r="H24" t="s">
+        <v>55</v>
+      </c>
+      <c r="I24" t="s">
+        <v>55</v>
+      </c>
+      <c r="J24" t="s">
+        <v>55</v>
+      </c>
+      <c r="K24" t="s">
+        <v>55</v>
+      </c>
+      <c r="L24" t="s">
+        <v>55</v>
+      </c>
+      <c r="M24" t="s">
+        <v>55</v>
+      </c>
+      <c r="N24" t="s">
+        <v>28</v>
+      </c>
+      <c r="O24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
         <v>56</v>
-      </c>
-      <c r="D24" t="s">
-        <v>56</v>
-      </c>
-      <c r="E24" t="s">
-        <v>56</v>
-      </c>
-      <c r="F24" t="s">
-        <v>56</v>
-      </c>
-      <c r="G24" t="s">
-        <v>56</v>
-      </c>
-      <c r="H24" t="s">
-        <v>56</v>
-      </c>
-      <c r="I24" t="s">
-        <v>56</v>
-      </c>
-      <c r="J24" t="s">
-        <v>56</v>
-      </c>
-      <c r="K24" t="s">
-        <v>56</v>
-      </c>
-      <c r="L24" t="s">
-        <v>56</v>
-      </c>
-      <c r="M24" t="s">
-        <v>56</v>
-      </c>
-      <c r="N24" t="s">
-        <v>56</v>
-      </c>
-      <c r="O24" t="s">
-        <v>29</v>
-      </c>
-      <c r="P24" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>57</v>
       </c>
       <c r="B25">
         <v>0.2</v>
@@ -1793,14 +1718,11 @@
       <c r="M25">
         <v>0.21</v>
       </c>
-      <c r="N25">
-        <v>0.19</v>
+      <c r="N25" t="s">
+        <v>30</v>
       </c>
       <c r="O25" t="s">
-        <v>31</v>
-      </c>
-      <c r="P25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
